--- a/weather.xlsx
+++ b/weather.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr filterPrivacy="1" codeName="ЭтаКнига"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{904D9279-F833-4683-821C-5BCD06B097BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{904D9279-F833-4683-821C-5BCD06B097BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{531B5E3C-67E3-4B77-9B71-D22CA1E4A32F}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4587,8 +4587,8 @@
   <dimension ref="A1:N2051"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1078" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F1105" sqref="F1105"/>
+      <pane ySplit="1" topLeftCell="A1069" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1095" sqref="B1095"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4631,19 +4631,19 @@
       </c>
       <c r="I1" s="8">
         <f ca="1">TODAY()</f>
-        <v>44463</v>
+        <v>44470</v>
       </c>
       <c r="J1" s="19" t="str">
         <f ca="1">IF(INDEX(Темп,MATCH(I1,Дата,0))=0,"Нет данных",INDEX(Темп,MATCH(I1,Дата,0))) &amp; " °С"</f>
-        <v>23,8 °С</v>
+        <v>12 °С</v>
       </c>
       <c r="K1" s="7" t="str">
         <f ca="1">IF(INDEX(Влаж,MATCH(I1,Дата,0))=0,"Нет данных",INDEX(Влаж,MATCH(I1,Дата,0))) &amp; " %"</f>
-        <v>42,5 %</v>
+        <v>40 %</v>
       </c>
       <c r="L1" s="7" t="str">
         <f ca="1">IF(INDEX(Давл,MATCH(I1,Дата,0))=0,"Нет данных",INDEX(Давл,MATCH(I1,Дата,0)))&amp; " кПа"</f>
-        <v>101,09 кПа</v>
+        <v>100 кПа</v>
       </c>
       <c r="M1" s="21"/>
     </row>
@@ -25019,6 +25019,21 @@
     <row r="1094" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1094" s="2">
         <v>44470</v>
+      </c>
+      <c r="B1094" s="16">
+        <v>12</v>
+      </c>
+      <c r="C1094" s="16">
+        <v>40</v>
+      </c>
+      <c r="D1094" s="3">
+        <v>100</v>
+      </c>
+      <c r="E1094" s="4">
+        <v>223</v>
+      </c>
+      <c r="F1094" s="4">
+        <v>50</v>
       </c>
       <c r="G1094" s="26" t="s">
         <v>1104</v>

--- a/weather.xlsx
+++ b/weather.xlsx
@@ -23321,20 +23321,20 @@
       <c r="A1096" s="2" t="n">
         <v>44472</v>
       </c>
-      <c r="B1096" s="50" t="n">
-        <v>1</v>
-      </c>
-      <c r="C1096" s="50" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1096" s="50" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1096" s="50" t="n">
-        <v>4</v>
-      </c>
-      <c r="F1096" s="50" t="n">
-        <v>5</v>
+      <c r="B1096" s="51" t="n">
+        <v>22</v>
+      </c>
+      <c r="C1096" s="51" t="n">
+        <v>33</v>
+      </c>
+      <c r="D1096" s="51" t="n">
+        <v>44</v>
+      </c>
+      <c r="E1096" s="51" t="n">
+        <v>55</v>
+      </c>
+      <c r="F1096" s="51" t="n">
+        <v>66</v>
       </c>
       <c r="G1096" s="26" t="inlineStr">
         <is>

--- a/weather.xlsx
+++ b/weather.xlsx
@@ -23366,6 +23366,21 @@
       <c r="A1099" s="2" t="n">
         <v>44475</v>
       </c>
+      <c r="B1099" s="51" t="n">
+        <v>11</v>
+      </c>
+      <c r="C1099" s="51" t="n">
+        <v>22</v>
+      </c>
+      <c r="D1099" s="51" t="n">
+        <v>33</v>
+      </c>
+      <c r="E1099" s="51" t="n">
+        <v>44</v>
+      </c>
+      <c r="F1099" s="51" t="n">
+        <v>55</v>
+      </c>
       <c r="G1099" s="26" t="inlineStr">
         <is>
           <t>06.10.2021</t>

--- a/weather.xlsx
+++ b/weather.xlsx
@@ -692,7 +692,7 @@
       <selection pane="bottomLeft" activeCell="A2595" sqref="A2595"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="13" customWidth="1" style="2" min="1" max="1"/>
     <col width="14" customWidth="1" style="36" min="2" max="2"/>
@@ -23428,19 +23428,19 @@
         <v>44484</v>
       </c>
       <c r="B1108" s="22" t="n">
-        <v>1</v>
+        <v>123</v>
       </c>
       <c r="C1108" s="22" t="n">
-        <v>2</v>
+        <v>123</v>
       </c>
       <c r="D1108" s="22" t="n">
-        <v>3</v>
+        <v>432</v>
       </c>
       <c r="E1108" s="22" t="n">
-        <v>4</v>
+        <v>324</v>
       </c>
       <c r="F1108" s="22" t="n">
-        <v>5</v>
+        <v>322</v>
       </c>
       <c r="M1108" s="31" t="inlineStr">
         <is>
@@ -23452,6 +23452,21 @@
       <c r="A1109" s="2" t="n">
         <v>44485</v>
       </c>
+      <c r="B1109" s="22" t="n">
+        <v>12</v>
+      </c>
+      <c r="C1109" s="22" t="n">
+        <v>34</v>
+      </c>
+      <c r="D1109" s="22" t="n">
+        <v>45</v>
+      </c>
+      <c r="E1109" s="22" t="n">
+        <v>56</v>
+      </c>
+      <c r="F1109" s="22" t="n">
+        <v>56</v>
+      </c>
       <c r="M1109" s="31" t="inlineStr">
         <is>
           <t>16.10.2021</t>
@@ -23461,6 +23476,21 @@
     <row r="1110">
       <c r="A1110" s="2" t="n">
         <v>44486</v>
+      </c>
+      <c r="B1110" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="C1110" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1110" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="E1110" s="22" t="n">
+        <v>1</v>
+      </c>
+      <c r="F1110" s="22" t="n">
+        <v>1</v>
       </c>
       <c r="M1110" s="31" t="inlineStr">
         <is>

--- a/weather.xlsx
+++ b/weather.xlsx
@@ -23478,19 +23478,19 @@
         <v>44486</v>
       </c>
       <c r="B1110" s="22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1110" s="22" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D1110" s="22" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E1110" s="22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F1110" s="22" t="n">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="M1110" s="31" t="inlineStr">
         <is>
